--- a/TInfenion_35H/IC_stock.xlsx
+++ b/TInfenion_35H/IC_stock.xlsx
@@ -1,45 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E7689C-97AC-914E-89CC-FF59D09A3622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzNTBOMTJLLUs=" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzNTBOMTJLLUstRVVQQw==" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzNTBOMTJLS0hQU0Ex" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzNTBOMTRLSFBTQTE=" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzNTBOMTZLLUVVUEM=" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzNTBOMTZLSFBTQTE=" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzNTBOMTZLT0Y=" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzNTBOMThLLUVVUEM=" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzNTBOMThLSFBTQTE=" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzNjBOMjJLSFBTQTE=" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzODBOMTZLSFBTQTE=" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzOTBOMTZTSFBTQTE=" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzOTBOMjJTSFBTQTE=" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQzOTBOMjJTVElNSFBTQTE=" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQ0MDBTMzNLMkNCM05EU0Ex" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQ0MDBTMzNLMkMtRVVQQw==" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQ0MDBTMzNLMkNOT1NBMQ==" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQ0MDBTMzNLTDJDTk9TQTE=" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQ0MzVOMzRLSFBTQTE=" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQ0MzVOMzZLLUVVUEM=" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQ0MzVOMzZLSFBTQTE=" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,21 +74,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -360,14 +435,397 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D707305E-F1CE-1A43-A0C4-768AD7A067F3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>